--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cranes Software International Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cranes Software International Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -719,7 +719,7 @@
         <v>-15.18</v>
       </c>
       <c r="H3">
-        <v>14.456</v>
+        <v>14.46</v>
       </c>
       <c r="I3">
         <v>-15.18</v>
@@ -2089,7 +2089,7 @@
         <v>0.47</v>
       </c>
       <c r="J25">
-        <v>12.3471875</v>
+        <v>12.35</v>
       </c>
       <c r="K25">
         <v>0.47</v>
@@ -2151,7 +2151,7 @@
         <v>1.82</v>
       </c>
       <c r="J26">
-        <v>12.3471875</v>
+        <v>12.35</v>
       </c>
       <c r="K26">
         <v>1.82</v>
@@ -2213,7 +2213,7 @@
         <v>-6.15</v>
       </c>
       <c r="J27">
-        <v>12.3471875</v>
+        <v>12.35</v>
       </c>
       <c r="K27">
         <v>-6.15</v>
@@ -2337,7 +2337,7 @@
         <v>-0.37</v>
       </c>
       <c r="J29">
-        <v>12.3471875</v>
+        <v>12.35</v>
       </c>
       <c r="K29">
         <v>-0.37</v>
@@ -2393,13 +2393,13 @@
         <v>-3.03</v>
       </c>
       <c r="H30">
-        <v>14.456</v>
+        <v>14.46</v>
       </c>
       <c r="I30">
         <v>-3.03</v>
       </c>
       <c r="J30">
-        <v>12.3471875</v>
+        <v>12.35</v>
       </c>
       <c r="K30">
         <v>-3.03</v>
@@ -2461,7 +2461,7 @@
         <v>-5.91</v>
       </c>
       <c r="J31">
-        <v>12.3471875</v>
+        <v>12.35</v>
       </c>
       <c r="K31">
         <v>-5.91</v>
@@ -2523,7 +2523,7 @@
         <v>-64.59999999999999</v>
       </c>
       <c r="J32">
-        <v>12.3471875</v>
+        <v>12.35</v>
       </c>
       <c r="K32">
         <v>-64.61</v>
@@ -2585,7 +2585,7 @@
         <v>-2.54</v>
       </c>
       <c r="J33">
-        <v>12.3471875</v>
+        <v>12.35</v>
       </c>
       <c r="K33">
         <v>-2.54</v>
@@ -2641,13 +2641,13 @@
         <v>-6.03</v>
       </c>
       <c r="H34">
-        <v>14.456</v>
+        <v>14.46</v>
       </c>
       <c r="I34">
         <v>-6.03</v>
       </c>
       <c r="J34">
-        <v>12.3471875</v>
+        <v>12.35</v>
       </c>
       <c r="K34">
         <v>-6.03</v>
@@ -2703,13 +2703,13 @@
         <v>-4.09</v>
       </c>
       <c r="H35">
-        <v>14.456</v>
+        <v>14.46</v>
       </c>
       <c r="I35">
         <v>-4.09</v>
       </c>
       <c r="J35">
-        <v>12.3471875</v>
+        <v>12.35</v>
       </c>
       <c r="K35">
         <v>-4.09</v>
@@ -2747,10 +2747,10 @@
         <v>54</v>
       </c>
       <c r="B36">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="C36">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="D36">
         <v>0.25</v>
@@ -2809,10 +2809,10 @@
         <v>55</v>
       </c>
       <c r="B37">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="C37">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="D37">
         <v>0.1</v>
@@ -2871,10 +2871,10 @@
         <v>56</v>
       </c>
       <c r="B38">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="C38">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="D38">
         <v>0.13</v>
@@ -2895,7 +2895,7 @@
         <v>-11.12</v>
       </c>
       <c r="J38">
-        <v>12.3471875</v>
+        <v>12.35</v>
       </c>
       <c r="K38">
         <v>-11.12</v>
@@ -2933,10 +2933,10 @@
         <v>57</v>
       </c>
       <c r="B39">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="C39">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="D39">
         <v>0.14</v>
@@ -2995,10 +2995,10 @@
         <v>58</v>
       </c>
       <c r="B40">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="C40">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="D40">
         <v>0.19</v>
@@ -3028,7 +3028,7 @@
         <v>28.47</v>
       </c>
       <c r="M40">
-        <v>4.427631578947368</v>
+        <v>4.43</v>
       </c>
       <c r="N40">
         <v>28.47</v>
@@ -3057,10 +3057,10 @@
         <v>59</v>
       </c>
       <c r="B41">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="C41">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="D41">
         <v>0.12</v>
@@ -3075,7 +3075,7 @@
         <v>-4.52</v>
       </c>
       <c r="H41">
-        <v>14.456</v>
+        <v>14.46</v>
       </c>
       <c r="I41">
         <v>-4.52</v>
@@ -3090,7 +3090,7 @@
         <v>-5.35</v>
       </c>
       <c r="M41">
-        <v>4.427631578947368</v>
+        <v>4.43</v>
       </c>
       <c r="N41">
         <v>-5.35</v>
@@ -3119,16 +3119,16 @@
         <v>60</v>
       </c>
       <c r="B42">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="C42">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="D42">
         <v>0.13</v>
       </c>
       <c r="E42">
-        <v>1.439318181818181</v>
+        <v>1.44</v>
       </c>
       <c r="F42">
         <v>4.32</v>
@@ -3137,7 +3137,7 @@
         <v>-4.45</v>
       </c>
       <c r="H42">
-        <v>14.456</v>
+        <v>14.46</v>
       </c>
       <c r="I42">
         <v>-4.45</v>
@@ -3152,7 +3152,7 @@
         <v>-5.28</v>
       </c>
       <c r="M42">
-        <v>4.427631578947368</v>
+        <v>4.43</v>
       </c>
       <c r="N42">
         <v>-5.28</v>
@@ -3181,10 +3181,10 @@
         <v>61</v>
       </c>
       <c r="B43">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="C43">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="D43">
         <v>0.15</v>
@@ -3199,7 +3199,7 @@
         <v>-4.63</v>
       </c>
       <c r="H43">
-        <v>14.456</v>
+        <v>14.46</v>
       </c>
       <c r="I43">
         <v>-4.63</v>
@@ -3214,7 +3214,7 @@
         <v>-5.47</v>
       </c>
       <c r="M43">
-        <v>4.427631578947368</v>
+        <v>4.43</v>
       </c>
       <c r="N43">
         <v>-5.47</v>
@@ -3243,10 +3243,10 @@
         <v>62</v>
       </c>
       <c r="B44">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="C44">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="D44">
         <v>0.15</v>
@@ -3261,7 +3261,7 @@
         <v>-5.07</v>
       </c>
       <c r="H44">
-        <v>14.456</v>
+        <v>14.46</v>
       </c>
       <c r="I44">
         <v>-5.07</v>
@@ -3276,7 +3276,7 @@
         <v>-2.56</v>
       </c>
       <c r="M44">
-        <v>4.427631578947368</v>
+        <v>4.43</v>
       </c>
       <c r="N44">
         <v>-2.56</v>
@@ -3305,10 +3305,10 @@
         <v>63</v>
       </c>
       <c r="B45">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="C45">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="D45">
         <v>0.11</v>
@@ -3323,13 +3323,13 @@
         <v>-5.16</v>
       </c>
       <c r="H45">
-        <v>14.456</v>
+        <v>14.46</v>
       </c>
       <c r="I45">
         <v>-5.16</v>
       </c>
       <c r="J45">
-        <v>12.3471875</v>
+        <v>12.35</v>
       </c>
       <c r="K45">
         <v>-5.16</v>
@@ -3338,7 +3338,7 @@
         <v>-5.16</v>
       </c>
       <c r="M45">
-        <v>4.427631578947368</v>
+        <v>4.43</v>
       </c>
       <c r="N45">
         <v>-5.16</v>
@@ -3367,10 +3367,10 @@
         <v>64</v>
       </c>
       <c r="B46">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="C46">
-        <v>2.060294117647059</v>
+        <v>2.06</v>
       </c>
       <c r="D46">
         <v>0.11</v>
@@ -3385,13 +3385,13 @@
         <v>-4.97</v>
       </c>
       <c r="H46">
-        <v>14.456</v>
+        <v>14.46</v>
       </c>
       <c r="I46">
         <v>-4.97</v>
       </c>
       <c r="J46">
-        <v>12.3471875</v>
+        <v>12.35</v>
       </c>
       <c r="K46">
         <v>-4.97</v>
@@ -3400,7 +3400,7 @@
         <v>-4.97</v>
       </c>
       <c r="M46">
-        <v>4.427631578947368</v>
+        <v>4.43</v>
       </c>
       <c r="N46">
         <v>-4.97</v>
